--- a/quest_list.xlsx
+++ b/quest_list.xlsx
@@ -1,24 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lex/Documents/GitHub/Week 5/LexMidBootcampProj/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93ED8D68-1A9D-A34F-996D-F66E0B0C590B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8860" yWindow="2720" windowWidth="41980" windowHeight="23420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$142</definedName>
-  </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -874,8 +865,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -938,14 +929,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -992,7 +975,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1024,27 +1007,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1076,24 +1041,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1269,20 +1216,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="205.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1290,7 +1231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1301,7 +1242,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>675</v>
       </c>
@@ -1312,7 +1253,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>1350</v>
       </c>
@@ -1323,7 +1264,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>2025</v>
       </c>
@@ -1334,7 +1275,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>2700</v>
       </c>
@@ -1345,7 +1286,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>3375</v>
       </c>
@@ -1356,7 +1297,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>4050</v>
       </c>
@@ -1367,7 +1308,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>4725</v>
       </c>
@@ -1378,7 +1319,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>5400</v>
       </c>
@@ -1389,7 +1330,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>6075</v>
       </c>
@@ -1400,7 +1341,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>6723</v>
       </c>
@@ -1411,7 +1352,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>7371</v>
       </c>
@@ -1422,7 +1363,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>8019</v>
       </c>
@@ -1433,7 +1374,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>8667</v>
       </c>
@@ -1444,7 +1385,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>9315</v>
       </c>
@@ -1455,7 +1396,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>9963</v>
       </c>
@@ -1466,7 +1407,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>10611</v>
       </c>
@@ -1477,7 +1418,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>11259</v>
       </c>
@@ -1488,1365 +1429,1360 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
+        <v>11907</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>12582</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>13257</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>13932</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
         <v>14607</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C24" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
         <v>15282</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C25" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>15957</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>16497</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>17157</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>17817</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>18477</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>19137</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>19665</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>20193</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>20721</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>21249</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>21769</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>22289</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>22817</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>23492</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>24167</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>24842</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>26164</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>26839</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>27244</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>27349</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>27385</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>28181</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>28451</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>28665</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>28879</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>29687</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>30077</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
+        <v>30467</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
         <v>30987</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B54" t="s">
         <v>54</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C54" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>11907</v>
-      </c>
-      <c r="B23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>12582</v>
-      </c>
-      <c r="B24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>13257</v>
-      </c>
-      <c r="B25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>13932</v>
-      </c>
-      <c r="B26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
+        <v>32163</v>
+      </c>
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1">
+        <v>32232</v>
+      </c>
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1">
+        <v>32301</v>
+      </c>
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
+        <v>32370</v>
+      </c>
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
         <v>32442</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B59" t="s">
         <v>59</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C59" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+    <row r="60" spans="1:3">
+      <c r="A60" s="1">
         <v>32847</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B60" t="s">
         <v>60</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C60" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>32163</v>
-      </c>
-      <c r="B29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>32232</v>
-      </c>
-      <c r="B30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>32301</v>
-      </c>
-      <c r="B31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>32370</v>
-      </c>
-      <c r="B32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+    <row r="61" spans="1:3">
+      <c r="A61" s="1">
         <v>33252</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B61" t="s">
         <v>61</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C61" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+    <row r="62" spans="1:3">
+      <c r="A62" s="1">
         <v>33624</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B62" t="s">
         <v>62</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C62" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+    <row r="63" spans="1:3">
+      <c r="A63" s="1">
         <v>34020</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B63" t="s">
         <v>63</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C63" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+    <row r="64" spans="1:3">
+      <c r="A64" s="1">
         <v>34380</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B64" t="s">
         <v>64</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C64" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+    <row r="65" spans="1:3">
+      <c r="A65" s="1">
         <v>34770</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B65" t="s">
         <v>65</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C65" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+    <row r="66" spans="1:3">
+      <c r="A66" s="1">
         <v>35121</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B66" t="s">
         <v>66</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C66" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+    <row r="67" spans="1:3">
+      <c r="A67" s="1">
         <v>35502</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B67" t="s">
         <v>67</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C67" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+    <row r="68" spans="1:3">
+      <c r="A68" s="1">
         <v>35901</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B68" t="s">
         <v>68</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C68" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+    <row r="69" spans="1:3">
+      <c r="A69" s="1">
         <v>36306</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B69" t="s">
         <v>69</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C69" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+    <row r="70" spans="1:3">
+      <c r="A70" s="1">
         <v>36699</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B70" t="s">
         <v>70</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C70" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+    <row r="71" spans="1:3">
+      <c r="A71" s="1">
         <v>37074</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B71" t="s">
         <v>71</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C71" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
+    <row r="72" spans="1:3">
+      <c r="A72" s="1">
         <v>37464</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B72" t="s">
         <v>72</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C72" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
+    <row r="73" spans="1:3">
+      <c r="A73" s="1">
         <v>37830</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B73" t="s">
         <v>73</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C73" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
+    <row r="74" spans="1:3">
+      <c r="A74" s="1">
         <v>39015</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B74" t="s">
         <v>74</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C74" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+    <row r="75" spans="1:3">
+      <c r="A75" s="1">
         <v>39535</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B75" t="s">
         <v>75</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C75" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
+    <row r="76" spans="1:3">
+      <c r="A76" s="1">
         <v>40055</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B76" t="s">
         <v>76</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C76" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
+    <row r="77" spans="1:3">
+      <c r="A77" s="1">
         <v>40567</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B77" t="s">
         <v>77</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C77" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
+    <row r="78" spans="1:3">
+      <c r="A78" s="1">
         <v>41095</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B78" t="s">
         <v>78</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C78" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
+    <row r="79" spans="1:3">
+      <c r="A79" s="1">
         <v>41623</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B79" t="s">
         <v>79</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C79" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
+    <row r="80" spans="1:3">
+      <c r="A80" s="1">
         <v>42139</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B80" t="s">
         <v>80</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C80" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
+    <row r="81" spans="1:3">
+      <c r="A81" s="1">
         <v>42659</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B81" t="s">
         <v>81</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C81" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
+    <row r="82" spans="1:3">
+      <c r="A82" s="1">
         <v>43179</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B82" t="s">
         <v>82</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C82" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
+    <row r="83" spans="1:3">
+      <c r="A83" s="1">
         <v>43691</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B83" t="s">
         <v>83</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C83" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
+    <row r="84" spans="1:3">
+      <c r="A84" s="1">
         <v>44223</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B84" t="s">
         <v>84</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C84" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
+    <row r="85" spans="1:3">
+      <c r="A85" s="1">
+        <v>44747</v>
+      </c>
+      <c r="B85" t="s">
+        <v>85</v>
+      </c>
+      <c r="C85" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1">
         <v>45017</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B86" t="s">
         <v>86</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C86" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
+    <row r="87" spans="1:3">
+      <c r="A87" s="1">
         <v>45422</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B87" t="s">
         <v>87</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C87" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
+    <row r="88" spans="1:3">
+      <c r="A88" s="1">
         <v>45827</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B88" t="s">
         <v>88</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C88" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
+    <row r="89" spans="1:3">
+      <c r="A89" s="1">
         <v>46097</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B89" t="s">
         <v>89</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C89" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
+    <row r="90" spans="1:3">
+      <c r="A90" s="1">
         <v>46367</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B90" t="s">
         <v>90</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C90" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
+    <row r="91" spans="1:3">
+      <c r="A91" s="1">
         <v>46637</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B91" t="s">
         <v>91</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C91" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
+    <row r="92" spans="1:3">
+      <c r="A92" s="1">
         <v>46907</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B92" t="s">
         <v>92</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C92" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
+    <row r="93" spans="1:3">
+      <c r="A93" s="1">
         <v>47312</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B93" t="s">
         <v>93</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C93" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
+    <row r="94" spans="1:3">
+      <c r="A94" s="1">
         <v>47717</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B94" t="s">
         <v>94</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C94" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
+    <row r="95" spans="1:3">
+      <c r="A95" s="1">
         <v>48122</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B95" t="s">
         <v>95</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C95" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
-        <v>44747</v>
-      </c>
-      <c r="B67" t="s">
-        <v>85</v>
-      </c>
-      <c r="C67" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
+    <row r="96" spans="1:3">
+      <c r="A96" s="1">
         <v>48527</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B96" t="s">
         <v>96</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C96" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
+    <row r="97" spans="1:3">
+      <c r="A97" s="1">
         <v>49067</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B97" t="s">
         <v>97</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C97" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
+    <row r="98" spans="1:3">
+      <c r="A98" s="1">
         <v>49472</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B98" t="s">
         <v>98</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C98" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
+    <row r="99" spans="1:3">
+      <c r="A99" s="1">
         <v>50711</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B99" t="s">
         <v>99</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C99" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
+    <row r="100" spans="1:3">
+      <c r="A100" s="1">
         <v>50981</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B100" t="s">
         <v>100</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C100" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
+    <row r="101" spans="1:3">
+      <c r="A101" s="1">
         <v>51251</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B101" t="s">
         <v>101</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C101" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
+    <row r="102" spans="1:3">
+      <c r="A102" s="1">
         <v>52497</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B102" t="s">
         <v>102</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C102" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
+    <row r="103" spans="1:3">
+      <c r="A103" s="1">
         <v>52764</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B103" t="s">
         <v>103</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C103" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
+    <row r="104" spans="1:3">
+      <c r="A104" s="1">
         <v>53795</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B104" t="s">
         <v>104</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C104" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
+    <row r="105" spans="1:3">
+      <c r="A105" s="1">
         <v>54264</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B105" t="s">
         <v>105</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C105" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
+    <row r="106" spans="1:3">
+      <c r="A106" s="1">
         <v>54887</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B106" t="s">
         <v>106</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C106" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
+    <row r="107" spans="1:3">
+      <c r="A107" s="1">
         <v>55510</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B107" t="s">
         <v>107</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C107" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
+    <row r="108" spans="1:3">
+      <c r="A108" s="1">
         <v>55777</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B108" t="s">
         <v>108</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C108" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
+    <row r="109" spans="1:3">
+      <c r="A109" s="1">
         <v>55955</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B109" t="s">
         <v>109</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C109" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
+    <row r="110" spans="1:3">
+      <c r="A110" s="1">
         <v>56936</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B110" t="s">
         <v>110</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C110" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
+    <row r="111" spans="1:3">
+      <c r="A111" s="1">
         <v>57292</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B111" t="s">
         <v>111</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C111" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
+    <row r="112" spans="1:3">
+      <c r="A112" s="1">
         <v>57826</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B112" t="s">
         <v>112</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C112" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
+    <row r="113" spans="1:3">
+      <c r="A113" s="1">
         <v>59506</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B113" t="s">
         <v>113</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C113" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
+    <row r="114" spans="1:3">
+      <c r="A114" s="1">
         <v>59866</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B114" t="s">
         <v>114</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C114" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
+    <row r="115" spans="1:3">
+      <c r="A115" s="1">
         <v>61444</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B115" t="s">
         <v>115</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C115" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
+    <row r="116" spans="1:3">
+      <c r="A116" s="1">
         <v>62165</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B116" t="s">
         <v>116</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C116" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
+    <row r="117" spans="1:3">
+      <c r="A117" s="1">
         <v>63005</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B117" t="s">
         <v>117</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C117" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
+    <row r="118" spans="1:3">
+      <c r="A118" s="1">
         <v>63365</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B118" t="s">
         <v>118</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C118" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
+    <row r="119" spans="1:3">
+      <c r="A119" s="1">
         <v>63605</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B119" t="s">
         <v>119</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C119" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
+    <row r="120" spans="1:3">
+      <c r="A120" s="1">
         <v>64982</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B120" t="s">
         <v>120</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C120" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
+    <row r="121" spans="1:3">
+      <c r="A121" s="1">
         <v>65462</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B121" t="s">
         <v>121</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C121" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
+    <row r="122" spans="1:3">
+      <c r="A122" s="1">
         <v>66182</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B122" t="s">
         <v>122</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C122" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
+    <row r="123" spans="1:3">
+      <c r="A123" s="1">
         <v>67982</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B123" t="s">
         <v>123</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C123" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="1">
+    <row r="124" spans="1:3">
+      <c r="A124" s="1">
         <v>68342</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B124" t="s">
         <v>124</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C124" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="1">
+    <row r="125" spans="1:3">
+      <c r="A125" s="1">
         <v>69964</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B125" t="s">
         <v>125</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C125" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
+    <row r="126" spans="1:3">
+      <c r="A126" s="1">
         <v>70591</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B126" t="s">
         <v>126</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C126" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
+    <row r="127" spans="1:3">
+      <c r="A127" s="1">
         <v>71431</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B127" t="s">
         <v>127</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C127" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
+    <row r="128" spans="1:3">
+      <c r="A128" s="1">
         <v>72507</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B128" t="s">
         <v>128</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C128" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="1">
+    <row r="129" spans="1:3">
+      <c r="A129" s="1">
         <v>72867</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B129" t="s">
         <v>129</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C129" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="1">
+    <row r="130" spans="1:3">
+      <c r="A130" s="1">
         <v>73227</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B130" t="s">
         <v>130</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C130" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="1">
+    <row r="131" spans="1:3">
+      <c r="A131" s="1">
         <v>74667</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B131" t="s">
         <v>131</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C131" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="1">
+    <row r="132" spans="1:3">
+      <c r="A132" s="1">
         <v>75147</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B132" t="s">
         <v>132</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C132" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="1">
+    <row r="133" spans="1:3">
+      <c r="A133" s="1">
         <v>75867</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B133" t="s">
         <v>133</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C133" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="1">
+    <row r="134" spans="1:3">
+      <c r="A134" s="1">
         <v>77727</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B134" t="s">
         <v>134</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C134" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="1">
+    <row r="135" spans="1:3">
+      <c r="A135" s="1">
         <v>78099</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B135" t="s">
         <v>135</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C135" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="1">
+    <row r="136" spans="1:3">
+      <c r="A136" s="1">
         <v>79834</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B136" t="s">
         <v>136</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C136" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="1">
+    <row r="137" spans="1:3">
+      <c r="A137" s="1">
         <v>80625</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B137" t="s">
         <v>137</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C137" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="1">
+    <row r="138" spans="1:3">
+      <c r="A138" s="1">
         <v>81741</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B138" t="s">
         <v>138</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C138" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" s="1">
+    <row r="139" spans="1:3">
+      <c r="A139" s="1">
         <v>82113</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B139" t="s">
         <v>139</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C139" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" s="1">
+    <row r="140" spans="1:3">
+      <c r="A140" s="1">
         <v>82485</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B140" t="s">
         <v>140</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C140" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="1">
+    <row r="141" spans="1:3">
+      <c r="A141" s="1">
         <v>84024</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B141" t="s">
         <v>141</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C141" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="1">
+    <row r="142" spans="1:3">
+      <c r="A142" s="1">
         <v>84520</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B142" t="s">
         <v>142</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C142" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="1">
-        <v>15957</v>
-      </c>
-      <c r="B115" t="s">
-        <v>26</v>
-      </c>
-      <c r="C115" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="1">
-        <v>16497</v>
-      </c>
-      <c r="B116" t="s">
-        <v>27</v>
-      </c>
-      <c r="C116" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="1">
-        <v>17157</v>
-      </c>
-      <c r="B117" t="s">
-        <v>28</v>
-      </c>
-      <c r="C117" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="1">
-        <v>17817</v>
-      </c>
-      <c r="B118" t="s">
-        <v>29</v>
-      </c>
-      <c r="C118" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="1">
-        <v>18477</v>
-      </c>
-      <c r="B119" t="s">
-        <v>30</v>
-      </c>
-      <c r="C119" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="1">
-        <v>19137</v>
-      </c>
-      <c r="B120" t="s">
-        <v>31</v>
-      </c>
-      <c r="C120" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="1">
-        <v>19665</v>
-      </c>
-      <c r="B121" t="s">
-        <v>32</v>
-      </c>
-      <c r="C121" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="1">
-        <v>20193</v>
-      </c>
-      <c r="B122" t="s">
-        <v>33</v>
-      </c>
-      <c r="C122" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="1">
-        <v>20721</v>
-      </c>
-      <c r="B123" t="s">
-        <v>34</v>
-      </c>
-      <c r="C123" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="1">
-        <v>21249</v>
-      </c>
-      <c r="B124" t="s">
-        <v>35</v>
-      </c>
-      <c r="C124" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="1">
-        <v>21769</v>
-      </c>
-      <c r="B125" t="s">
-        <v>36</v>
-      </c>
-      <c r="C125" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="1">
-        <v>22289</v>
-      </c>
-      <c r="B126" t="s">
-        <v>37</v>
-      </c>
-      <c r="C126" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="1">
-        <v>22817</v>
-      </c>
-      <c r="B127" t="s">
-        <v>38</v>
-      </c>
-      <c r="C127" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="1">
-        <v>23492</v>
-      </c>
-      <c r="B128" t="s">
-        <v>39</v>
-      </c>
-      <c r="C128" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="1">
-        <v>24167</v>
-      </c>
-      <c r="B129" t="s">
-        <v>40</v>
-      </c>
-      <c r="C129" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="1">
-        <v>24842</v>
-      </c>
-      <c r="B130" t="s">
-        <v>41</v>
-      </c>
-      <c r="C130" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="1">
-        <v>26164</v>
-      </c>
-      <c r="B131" t="s">
-        <v>42</v>
-      </c>
-      <c r="C131" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="1">
-        <v>26839</v>
-      </c>
-      <c r="B132" t="s">
-        <v>43</v>
-      </c>
-      <c r="C132" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="1">
-        <v>27244</v>
-      </c>
-      <c r="B133" t="s">
-        <v>44</v>
-      </c>
-      <c r="C133" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="1">
-        <v>27349</v>
-      </c>
-      <c r="B134" t="s">
-        <v>45</v>
-      </c>
-      <c r="C134" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="1">
-        <v>27385</v>
-      </c>
-      <c r="B135" t="s">
-        <v>46</v>
-      </c>
-      <c r="C135" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="1">
-        <v>28181</v>
-      </c>
-      <c r="B136" t="s">
-        <v>47</v>
-      </c>
-      <c r="C136" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="1">
-        <v>28451</v>
-      </c>
-      <c r="B137" t="s">
-        <v>48</v>
-      </c>
-      <c r="C137" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="1">
-        <v>28665</v>
-      </c>
-      <c r="B138" t="s">
-        <v>49</v>
-      </c>
-      <c r="C138" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="1">
-        <v>28879</v>
-      </c>
-      <c r="B139" t="s">
-        <v>50</v>
-      </c>
-      <c r="C139" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="1">
-        <v>29687</v>
-      </c>
-      <c r="B140" t="s">
-        <v>51</v>
-      </c>
-      <c r="C140" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" s="1">
-        <v>30077</v>
-      </c>
-      <c r="B141" t="s">
-        <v>52</v>
-      </c>
-      <c r="C141" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" s="1">
-        <v>30467</v>
-      </c>
-      <c r="B142" t="s">
-        <v>53</v>
-      </c>
-      <c r="C142" t="s">
-        <v>192</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C142" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C142">
-      <sortCondition ref="B1:B142"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/quest_list.xlsx
+++ b/quest_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="328">
   <si>
     <t>question_code</t>
   </si>
@@ -445,6 +445,75 @@
     <t>fb2_9</t>
   </si>
   <si>
+    <t>tr1</t>
+  </si>
+  <si>
+    <t>tr2</t>
+  </si>
+  <si>
+    <t>tr3</t>
+  </si>
+  <si>
+    <t>tr4</t>
+  </si>
+  <si>
+    <t>tr5</t>
+  </si>
+  <si>
+    <t>tr6_a</t>
+  </si>
+  <si>
+    <t>tr6_b</t>
+  </si>
+  <si>
+    <t>tr6_c</t>
+  </si>
+  <si>
+    <t>tr6_d</t>
+  </si>
+  <si>
+    <t>tr6_e</t>
+  </si>
+  <si>
+    <t>tr6_f</t>
+  </si>
+  <si>
+    <t>tr6_g</t>
+  </si>
+  <si>
+    <t>tr6_h</t>
+  </si>
+  <si>
+    <t>tr7</t>
+  </si>
+  <si>
+    <t>tr8_a</t>
+  </si>
+  <si>
+    <t>tr8_b</t>
+  </si>
+  <si>
+    <t>tr8_c</t>
+  </si>
+  <si>
+    <t>tr8_d</t>
+  </si>
+  <si>
+    <t>tr8_e</t>
+  </si>
+  <si>
+    <t>tr8_f</t>
+  </si>
+  <si>
+    <t>tr8_g</t>
+  </si>
+  <si>
+    <t>tr8_h</t>
+  </si>
+  <si>
+    <t>tr9</t>
+  </si>
+  <si>
     <t>In your opinion, how widespread is offensive language about lesbian, gay, bisexual and/or transgender people by politicians in the country where you live?</t>
   </si>
   <si>
@@ -860,6 +929,75 @@
   </si>
   <si>
     <t>MOST SERIOUS incident of harassment - Do you think the perpetrator(s) was ...? (sexual orientation)</t>
+  </si>
+  <si>
+    <t>Have you ever sought psychological or medical help for being a transgender person?</t>
+  </si>
+  <si>
+    <t>Why haven`t you ever sought psychological or medical help for being a transgender person?</t>
+  </si>
+  <si>
+    <t>From whom did you seek help and what was the outcome? *</t>
+  </si>
+  <si>
+    <t>As far as you know, can a person alter his/her physical appearance through gender reassignment treatment or self-treatment (eg hormonal treatment) genital surgery, etc in the country where you live?</t>
+  </si>
+  <si>
+    <t>Have you gone abroad or considered going abroad for medical treatment to alter your physical appearance, including buying hormones over the internet from other countries?</t>
+  </si>
+  <si>
+    <t>More options for medical treatment - What would allow you to be more comfortable living as a transgender person in the country where you live?</t>
+  </si>
+  <si>
+    <t>Easier legal procedures for gender recognition in the preferred gender - What would allow you to be more comfortable living as a transgender person in the country where you live?</t>
+  </si>
+  <si>
+    <t>Workplace anti-discrimination policies referring to gender identity - What would allow you to be more comfortable living as a transgender person in the country where you live?</t>
+  </si>
+  <si>
+    <t>Measures implemented at school to respect transgender people - What would allow you to be more comfortable living as a transgender person in the country where you live?</t>
+  </si>
+  <si>
+    <t>Public figures in politics, business, sports, etc speaking openly in support of transgender people - What would allow you to be more comfortable living as a transgender person in the country where you live?</t>
+  </si>
+  <si>
+    <t>National authorities who promote the rights of transgender people - What would allow you to be more comfortable living as a transgender person in the country where you live?</t>
+  </si>
+  <si>
+    <t>Training of public servants (eg police, teachers) on the rights of transgender people - What would allow you to be more comfortable living as a transgender person in the country where you live?</t>
+  </si>
+  <si>
+    <t>Better acceptance of differences in gender identities by religious leaders - What would allow you to be more comfortable living as a transgender person in the country where you live?</t>
+  </si>
+  <si>
+    <t>As far as you know, in the country where you live, can a person change their official documents to match their preferred gender?</t>
+  </si>
+  <si>
+    <t>Get divorced/ not be married - As far as you know, what would you have to do in order to change your official documents to match your preferred gender in the country where you live?</t>
+  </si>
+  <si>
+    <t>Prove your permanent infertility - As far as you know, what would you have to do in order to change your official documents to match your preferred gender in the country where you live?</t>
+  </si>
+  <si>
+    <t>Prove your irreversible gender reassignment - As far as you know, what would you have to do in order to change your official documents to match your preferred gender in the country where you live?</t>
+  </si>
+  <si>
+    <t>Complete the real life test - As far as you know, what would you have to do in order to change your official documents to match your preferred gender in the country where you live?</t>
+  </si>
+  <si>
+    <t>Prove hormonal treatment (started or finished) to change your gender - As far as you know, what would you have to do in order to change your official documents to match your preferred gender in the country where you live?</t>
+  </si>
+  <si>
+    <t>Undergo mandatory psychotherapy / psychiatric treatment - As far as you know, what would you have to do in order to change your official documents to match your preferred gender in the country where you live?</t>
+  </si>
+  <si>
+    <t>Prove medical/psychological diagnosis of transsexuality / gender dysphoria / transgenderism or similar - As far as you know, what would you have to do in order to change your official documents to match your preferred gender in the country where you live ?</t>
+  </si>
+  <si>
+    <t>Other - As far as you know, what would you have to do in order to change your official documents to match your preferred gender in the country where you live?</t>
+  </si>
+  <si>
+    <t>Do you avoid expressing your gender (or your desired gender) through your physical appearance and clothing for fear of being assaulted, threatened or harassed?</t>
   </si>
 </sst>
 </file>
@@ -1217,7 +1355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C142"/>
+  <dimension ref="A1:C165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1239,7 +1377,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1250,7 +1388,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1261,7 +1399,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1272,7 +1410,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1283,7 +1421,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1294,7 +1432,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1305,7 +1443,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1316,7 +1454,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1327,7 +1465,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1338,7 +1476,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1349,7 +1487,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1360,7 +1498,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1371,7 +1509,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1382,7 +1520,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1393,7 +1531,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1404,7 +1542,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1415,7 +1553,7 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1426,7 +1564,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1437,7 +1575,7 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1448,7 +1586,7 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1459,7 +1597,7 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1470,7 +1608,7 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1481,7 +1619,7 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1492,7 +1630,7 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1503,7 +1641,7 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1514,7 +1652,7 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1525,7 +1663,7 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1536,7 +1674,7 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1547,7 +1685,7 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1558,7 +1696,7 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1569,7 +1707,7 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1580,7 +1718,7 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1591,7 +1729,7 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1602,7 +1740,7 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1613,7 +1751,7 @@
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1624,7 +1762,7 @@
         <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1635,7 +1773,7 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1646,7 +1784,7 @@
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1657,7 +1795,7 @@
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1668,7 +1806,7 @@
         <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1679,7 +1817,7 @@
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1690,7 +1828,7 @@
         <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1701,7 +1839,7 @@
         <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1712,7 +1850,7 @@
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1723,7 +1861,7 @@
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1734,7 +1872,7 @@
         <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1745,7 +1883,7 @@
         <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1756,7 +1894,7 @@
         <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1767,7 +1905,7 @@
         <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1778,7 +1916,7 @@
         <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1789,7 +1927,7 @@
         <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1800,7 +1938,7 @@
         <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1811,7 +1949,7 @@
         <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1822,7 +1960,7 @@
         <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1833,7 +1971,7 @@
         <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1844,7 +1982,7 @@
         <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1855,7 +1993,7 @@
         <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1866,7 +2004,7 @@
         <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1877,7 +2015,7 @@
         <v>60</v>
       </c>
       <c r="C60" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1888,7 +2026,7 @@
         <v>61</v>
       </c>
       <c r="C61" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1899,7 +2037,7 @@
         <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1910,7 +2048,7 @@
         <v>63</v>
       </c>
       <c r="C63" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1921,7 +2059,7 @@
         <v>64</v>
       </c>
       <c r="C64" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1932,7 +2070,7 @@
         <v>65</v>
       </c>
       <c r="C65" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1943,7 +2081,7 @@
         <v>66</v>
       </c>
       <c r="C66" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1954,7 +2092,7 @@
         <v>67</v>
       </c>
       <c r="C67" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1965,7 +2103,7 @@
         <v>68</v>
       </c>
       <c r="C68" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1976,7 +2114,7 @@
         <v>69</v>
       </c>
       <c r="C69" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1987,7 +2125,7 @@
         <v>70</v>
       </c>
       <c r="C70" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1998,7 +2136,7 @@
         <v>71</v>
       </c>
       <c r="C71" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2009,7 +2147,7 @@
         <v>72</v>
       </c>
       <c r="C72" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2020,7 +2158,7 @@
         <v>73</v>
       </c>
       <c r="C73" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2031,7 +2169,7 @@
         <v>74</v>
       </c>
       <c r="C74" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2042,7 +2180,7 @@
         <v>75</v>
       </c>
       <c r="C75" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2053,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C76" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2064,7 +2202,7 @@
         <v>77</v>
       </c>
       <c r="C77" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2075,7 +2213,7 @@
         <v>78</v>
       </c>
       <c r="C78" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2086,7 +2224,7 @@
         <v>79</v>
       </c>
       <c r="C79" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2097,7 +2235,7 @@
         <v>80</v>
       </c>
       <c r="C80" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2108,7 +2246,7 @@
         <v>81</v>
       </c>
       <c r="C81" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2119,7 +2257,7 @@
         <v>82</v>
       </c>
       <c r="C82" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2130,7 +2268,7 @@
         <v>83</v>
       </c>
       <c r="C83" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2141,7 +2279,7 @@
         <v>84</v>
       </c>
       <c r="C84" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2152,7 +2290,7 @@
         <v>85</v>
       </c>
       <c r="C85" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2163,7 +2301,7 @@
         <v>86</v>
       </c>
       <c r="C86" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2174,7 +2312,7 @@
         <v>87</v>
       </c>
       <c r="C87" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2185,7 +2323,7 @@
         <v>88</v>
       </c>
       <c r="C88" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2196,7 +2334,7 @@
         <v>89</v>
       </c>
       <c r="C89" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2207,7 +2345,7 @@
         <v>90</v>
       </c>
       <c r="C90" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2218,7 +2356,7 @@
         <v>91</v>
       </c>
       <c r="C91" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2229,7 +2367,7 @@
         <v>92</v>
       </c>
       <c r="C92" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2240,7 +2378,7 @@
         <v>93</v>
       </c>
       <c r="C93" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2251,7 +2389,7 @@
         <v>94</v>
       </c>
       <c r="C94" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2262,7 +2400,7 @@
         <v>95</v>
       </c>
       <c r="C95" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2273,7 +2411,7 @@
         <v>96</v>
       </c>
       <c r="C96" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2284,7 +2422,7 @@
         <v>97</v>
       </c>
       <c r="C97" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2295,7 +2433,7 @@
         <v>98</v>
       </c>
       <c r="C98" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2306,7 +2444,7 @@
         <v>99</v>
       </c>
       <c r="C99" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2317,7 +2455,7 @@
         <v>100</v>
       </c>
       <c r="C100" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2328,7 +2466,7 @@
         <v>101</v>
       </c>
       <c r="C101" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2339,7 +2477,7 @@
         <v>102</v>
       </c>
       <c r="C102" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2350,7 +2488,7 @@
         <v>103</v>
       </c>
       <c r="C103" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2361,7 +2499,7 @@
         <v>104</v>
       </c>
       <c r="C104" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2372,7 +2510,7 @@
         <v>105</v>
       </c>
       <c r="C105" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2383,7 +2521,7 @@
         <v>106</v>
       </c>
       <c r="C106" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2394,7 +2532,7 @@
         <v>107</v>
       </c>
       <c r="C107" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2405,7 +2543,7 @@
         <v>108</v>
       </c>
       <c r="C108" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2416,7 +2554,7 @@
         <v>109</v>
       </c>
       <c r="C109" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2427,7 +2565,7 @@
         <v>110</v>
       </c>
       <c r="C110" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2438,7 +2576,7 @@
         <v>111</v>
       </c>
       <c r="C111" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2449,7 +2587,7 @@
         <v>112</v>
       </c>
       <c r="C112" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2460,7 +2598,7 @@
         <v>113</v>
       </c>
       <c r="C113" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2471,7 +2609,7 @@
         <v>114</v>
       </c>
       <c r="C114" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2482,7 +2620,7 @@
         <v>115</v>
       </c>
       <c r="C115" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2493,7 +2631,7 @@
         <v>116</v>
       </c>
       <c r="C116" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2504,7 +2642,7 @@
         <v>117</v>
       </c>
       <c r="C117" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2515,7 +2653,7 @@
         <v>118</v>
       </c>
       <c r="C118" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2526,7 +2664,7 @@
         <v>119</v>
       </c>
       <c r="C119" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2537,7 +2675,7 @@
         <v>120</v>
       </c>
       <c r="C120" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2548,7 +2686,7 @@
         <v>121</v>
       </c>
       <c r="C121" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2559,7 +2697,7 @@
         <v>122</v>
       </c>
       <c r="C122" t="s">
-        <v>261</v>
+        <v>284</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2570,7 +2708,7 @@
         <v>123</v>
       </c>
       <c r="C123" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2581,7 +2719,7 @@
         <v>124</v>
       </c>
       <c r="C124" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2592,7 +2730,7 @@
         <v>125</v>
       </c>
       <c r="C125" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2603,7 +2741,7 @@
         <v>126</v>
       </c>
       <c r="C126" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2614,7 +2752,7 @@
         <v>127</v>
       </c>
       <c r="C127" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2625,7 +2763,7 @@
         <v>128</v>
       </c>
       <c r="C128" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2636,7 +2774,7 @@
         <v>129</v>
       </c>
       <c r="C129" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2647,7 +2785,7 @@
         <v>130</v>
       </c>
       <c r="C130" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2658,7 +2796,7 @@
         <v>131</v>
       </c>
       <c r="C131" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2669,7 +2807,7 @@
         <v>132</v>
       </c>
       <c r="C132" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2680,7 +2818,7 @@
         <v>133</v>
       </c>
       <c r="C133" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2691,7 +2829,7 @@
         <v>134</v>
       </c>
       <c r="C134" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2702,7 +2840,7 @@
         <v>135</v>
       </c>
       <c r="C135" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2713,7 +2851,7 @@
         <v>136</v>
       </c>
       <c r="C136" t="s">
-        <v>275</v>
+        <v>298</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2724,7 +2862,7 @@
         <v>137</v>
       </c>
       <c r="C137" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2735,7 +2873,7 @@
         <v>138</v>
       </c>
       <c r="C138" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2746,7 +2884,7 @@
         <v>139</v>
       </c>
       <c r="C139" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2757,7 +2895,7 @@
         <v>140</v>
       </c>
       <c r="C140" t="s">
-        <v>279</v>
+        <v>302</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2768,7 +2906,7 @@
         <v>141</v>
       </c>
       <c r="C141" t="s">
-        <v>280</v>
+        <v>303</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2779,7 +2917,260 @@
         <v>142</v>
       </c>
       <c r="C142" t="s">
-        <v>281</v>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="1">
+        <v>85264</v>
+      </c>
+      <c r="B143" t="s">
+        <v>143</v>
+      </c>
+      <c r="C143" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="1">
+        <v>85345</v>
+      </c>
+      <c r="B144" t="s">
+        <v>144</v>
+      </c>
+      <c r="C144" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1">
+        <v>85647</v>
+      </c>
+      <c r="B145" t="s">
+        <v>145</v>
+      </c>
+      <c r="C145" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="1">
+        <v>85966</v>
+      </c>
+      <c r="B146" t="s">
+        <v>146</v>
+      </c>
+      <c r="C146" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="1">
+        <v>86047</v>
+      </c>
+      <c r="B147" t="s">
+        <v>147</v>
+      </c>
+      <c r="C147" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="1">
+        <v>86182</v>
+      </c>
+      <c r="B148" t="s">
+        <v>148</v>
+      </c>
+      <c r="C148" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="1">
+        <v>86344</v>
+      </c>
+      <c r="B149" t="s">
+        <v>149</v>
+      </c>
+      <c r="C149" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="1">
+        <v>86506</v>
+      </c>
+      <c r="B150" t="s">
+        <v>150</v>
+      </c>
+      <c r="C150" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="1">
+        <v>86668</v>
+      </c>
+      <c r="B151" t="s">
+        <v>151</v>
+      </c>
+      <c r="C151" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="1">
+        <v>86830</v>
+      </c>
+      <c r="B152" t="s">
+        <v>152</v>
+      </c>
+      <c r="C152" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="1">
+        <v>86992</v>
+      </c>
+      <c r="B153" t="s">
+        <v>153</v>
+      </c>
+      <c r="C153" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="1">
+        <v>87154</v>
+      </c>
+      <c r="B154" t="s">
+        <v>154</v>
+      </c>
+      <c r="C154" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="1">
+        <v>87316</v>
+      </c>
+      <c r="B155" t="s">
+        <v>155</v>
+      </c>
+      <c r="C155" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="1">
+        <v>87478</v>
+      </c>
+      <c r="B156" t="s">
+        <v>156</v>
+      </c>
+      <c r="C156" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="1">
+        <v>87586</v>
+      </c>
+      <c r="B157" t="s">
+        <v>157</v>
+      </c>
+      <c r="C157" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="1">
+        <v>87652</v>
+      </c>
+      <c r="B158" t="s">
+        <v>158</v>
+      </c>
+      <c r="C158" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="1">
+        <v>87718</v>
+      </c>
+      <c r="B159" t="s">
+        <v>159</v>
+      </c>
+      <c r="C159" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="1">
+        <v>87784</v>
+      </c>
+      <c r="B160" t="s">
+        <v>160</v>
+      </c>
+      <c r="C160" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="1">
+        <v>87850</v>
+      </c>
+      <c r="B161" t="s">
+        <v>161</v>
+      </c>
+      <c r="C161" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="1">
+        <v>87916</v>
+      </c>
+      <c r="B162" t="s">
+        <v>162</v>
+      </c>
+      <c r="C162" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="1">
+        <v>87982</v>
+      </c>
+      <c r="B163" t="s">
+        <v>163</v>
+      </c>
+      <c r="C163" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="1">
+        <v>88048</v>
+      </c>
+      <c r="B164" t="s">
+        <v>164</v>
+      </c>
+      <c r="C164" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="1">
+        <v>88114</v>
+      </c>
+      <c r="B165" t="s">
+        <v>165</v>
+      </c>
+      <c r="C165" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>
